--- a/biology/Zoologie/Bulbul_à_oreillons_blancs/Bulbul_à_oreillons_blancs.xlsx
+++ b/biology/Zoologie/Bulbul_à_oreillons_blancs/Bulbul_à_oreillons_blancs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_oreillons_blancs</t>
+          <t>Bulbul_à_oreillons_blancs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus leucotis
 Le Bulbul à oreillons blancs (Pycnonotus leucotis) est une espèce de passereau de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_oreillons_blancs</t>
+          <t>Bulbul_à_oreillons_blancs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au centre et au sud de l'Irak, au sud de l'Iran, au Qatar, en Afghanistan, au  Pakistan, au nord-ouest de l'Inde, dans certaines régions du Maharashtra, Madhya Pradesh, et on peut également le considérer comme présent aux Émirats arabes unis.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_oreillons_blancs</t>
+          <t>Bulbul_à_oreillons_blancs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Systématique et description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce  était autrefois considérée comme conspécifique de Pycnonotus leucogenys.
 Cette espèce est très semblable en apparence au Bulbul à joues blanches Pycnonotus leucogenys mais il est plus petit, n'a pas de huppe et ses taches blanches sur les joues sont plus grandes. Il a un anneau pâle autour de l'œil. Le croupion est jaune orange. Les sexes sont semblables.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_oreillons_blancs</t>
+          <t>Bulbul_à_oreillons_blancs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat, alimentation et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les zones de broussailles et les jardins. Il vit également dans les mangroves à se gaver de fruits de Meswak (Salvadora persica). On le voit généralement en couples ou en petits groupes. Il se nourrit de fruits et d'insectes et se reproduit en mars-juin.
 </t>
